--- a/matlab/initial_conditions/create_initial_conditions/Defaults_2014_HN.xlsx
+++ b/matlab/initial_conditions/create_initial_conditions/Defaults_2014_HN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Hawkesbury\matlab\initial_conditions\create_initial_conditions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0476AC-3CFA-4131-87AD-5239FA638AAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398D7A89-25A5-4A0C-829F-4D080563B225}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1665" yWindow="2025" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4920" yWindow="1590" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mean_Initial_Condition" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Zone 3</t>
   </si>
@@ -117,6 +117,15 @@
   </si>
   <si>
     <t>TEMP</t>
+  </si>
+  <si>
+    <t>ECLOI</t>
+  </si>
+  <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>ENT</t>
   </si>
 </sst>
 </file>
@@ -641,7 +650,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -654,6 +663,10 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1009,10 +1022,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="B25" sqref="B25:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1678,6 +1691,93 @@
         <v>0</v>
       </c>
     </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="7">
+        <v>0</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="7">
+        <v>0</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0</v>
+      </c>
+      <c r="G24" s="7">
+        <v>5</v>
+      </c>
+      <c r="H24" s="7">
+        <v>9</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="7">
+        <v>0</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
